--- a/phaseIIProposal/company/RNET_Commercialization_History.xlsx
+++ b/phaseIIProposal/company/RNET_Commercialization_History.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsabin/RNET/proposals/doe_sbir19.1/7b_nwchem/phase1proposal/company/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B477652B-9809-A245-A5FC-71D53879D34F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24720" windowHeight="17400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24720" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend &amp; Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="Commercial History" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Commercial History'!$A$4:$Q$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Commercial History'!$B$6:$Q$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Commercial History'!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -24,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ogwinc</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -127,13 +141,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -141,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="0">
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q7" authorId="0">
+    <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t xml:space="preserve">Ground Penetrating Radar (GPR) System and Algorithms for Fine Root Analysis </t>
   </si>
@@ -694,20 +708,24 @@
   </si>
   <si>
     <t>SC 0011312</t>
+  </si>
+  <si>
+    <t>SC 0015748</t>
+  </si>
+  <si>
+    <t>Cloud-based Scientific Workbench for Nuclear Reactor Simulation Life Cycle Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -811,6 +829,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -822,6 +841,13 @@
       <sz val="10"/>
       <color indexed="57"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -843,109 +869,109 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -953,20 +979,20 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -975,14 +1001,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,7 +1017,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,10 +1134,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1134,7 +1163,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1285,7 +1320,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1418,7 +1459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1836,46 +1883,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="18" spans="4:4" ht="16" thickBot="1"/>
-    <row r="19" spans="4:4">
+    <row r="18" spans="4:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="4:4" ht="16" thickBot="1">
+    <row r="22" spans="4:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
     </row>
   </sheetData>
@@ -1884,26 +1931,21 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="6" customWidth="1"/>
@@ -1925,7 +1967,7 @@
     <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1940,7 +1982,7 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1955,7 +1997,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1970,7 +2012,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" ht="17">
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +2035,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" ht="16" thickBot="1">
+    <row r="5" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2006,7 +2048,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="16" thickBot="1">
+    <row r="6" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2029,7 +2071,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="40"/>
     </row>
-    <row r="7" spans="1:17" ht="22" thickBot="1">
+    <row r="7" spans="1:17" ht="26" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2082,7 +2124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" ht="12">
+    <row r="8" spans="1:17" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
         <v>28</v>
       </c>
@@ -2114,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="30">
-        <f t="shared" ref="K8:K17" si="0">SUM(G8:J8)</f>
+        <f>SUM(G8:J8)</f>
         <v>470855</v>
       </c>
       <c r="L8" s="29">
@@ -2137,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" ht="12">
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>28</v>
       </c>
@@ -2169,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(G9:J9)</f>
         <v>19656</v>
       </c>
       <c r="L9" s="18"/>
@@ -2179,7 +2221,7 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>33</v>
       </c>
@@ -2211,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:J10)</f>
         <v>0</v>
       </c>
       <c r="L10" s="18"/>
@@ -2221,7 +2263,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" ht="29.5" customHeight="1">
+    <row r="11" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>33</v>
       </c>
@@ -2253,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(G11:J11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="18"/>
@@ -2263,7 +2305,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" ht="25">
+    <row r="12" spans="1:17" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>33</v>
       </c>
@@ -2295,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(G12:J12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="18"/>
@@ -2305,7 +2347,7 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1">
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>33</v>
       </c>
@@ -2337,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(G13:J13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="18"/>
@@ -2347,7 +2389,7 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>42</v>
       </c>
@@ -2379,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(G14:J14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="18"/>
@@ -2389,7 +2431,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>47</v>
       </c>
@@ -2430,24 +2472,24 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="22"/>
     </row>
-    <row r="16" spans="1:17" ht="29" customHeight="1">
+    <row r="16" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="31">
-        <v>2013</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="26">
+        <v>2011</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="28">
-        <v>750000</v>
+        <v>742474</v>
       </c>
       <c r="G16" s="29">
         <v>0</v>
@@ -2472,24 +2514,24 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="22"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C17" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="28">
-        <v>742474</v>
+        <v>749999</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
@@ -2504,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(G17:J17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="18"/>
@@ -2514,18 +2556,18 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="22"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="26">
         <v>2012</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>7</v>
@@ -2556,24 +2598,24 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="22"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="26">
-        <v>2012</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="31">
+        <v>2013</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>7</v>
       </c>
       <c r="F19" s="28">
-        <v>749999</v>
+        <v>750000</v>
       </c>
       <c r="G19" s="29">
         <v>0</v>
@@ -2588,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="30">
-        <f t="shared" ref="K19" si="1">SUM(G19:J19)</f>
+        <f>SUM(G19:J19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="18"/>
@@ -2598,7 +2640,7 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="22"/>
     </row>
-    <row r="20" spans="1:17" ht="25">
+    <row r="20" spans="1:17" ht="29" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>42</v>
       </c>
@@ -2611,8 +2653,8 @@
       <c r="D20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>57</v>
+      <c r="E20" s="32" t="s">
+        <v>7</v>
       </c>
       <c r="F20" s="28">
         <v>749999</v>
@@ -2630,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="30">
-        <f t="shared" ref="K20" si="2">SUM(G20:J20)</f>
+        <f>SUM(G20:J20)</f>
         <v>0</v>
       </c>
       <c r="L20" s="18"/>
@@ -2640,7 +2682,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="22"/>
     </row>
-    <row r="21" spans="1:17" ht="25">
+    <row r="21" spans="1:17" ht="29" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>33</v>
       </c>
@@ -2653,8 +2695,8 @@
       <c r="D21" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>57</v>
+      <c r="E21" s="32" t="s">
+        <v>7</v>
       </c>
       <c r="F21" s="28">
         <v>1499999</v>
@@ -2672,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" ref="K21:K22" si="3">SUM(G21:J21)</f>
+        <f>SUM(G21:J21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="18"/>
@@ -2682,7 +2724,7 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" ht="25">
+    <row r="22" spans="1:17" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>33</v>
       </c>
@@ -2695,8 +2737,8 @@
       <c r="D22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>57</v>
+      <c r="E22" s="32" t="s">
+        <v>7</v>
       </c>
       <c r="F22" s="28">
         <v>1000000</v>
@@ -2714,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="30">
-        <f t="shared" si="3"/>
+        <f>SUM(G22:J22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="18"/>
@@ -2724,7 +2766,7 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="22"/>
     </row>
-    <row r="23" spans="1:17" ht="25">
+    <row r="23" spans="1:17" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>1</v>
       </c>
@@ -2756,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="30">
-        <f t="shared" ref="K23" si="4">SUM(G23:J23)</f>
+        <f>SUM(G23:J23)</f>
         <v>0</v>
       </c>
       <c r="L23" s="18"/>
@@ -2766,7 +2808,7 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="22"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>33</v>
       </c>
@@ -2798,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="30">
-        <f t="shared" ref="K24" si="5">SUM(G24:J24)</f>
+        <f>SUM(G24:J24)</f>
         <v>0</v>
       </c>
       <c r="L24" s="18"/>
@@ -2808,18 +2850,41 @@
       <c r="P24" s="18"/>
       <c r="Q24" s="22"/>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="31">
+        <v>2017</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="28">
+        <v>1000000</v>
+      </c>
+      <c r="G25" s="29">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29">
+        <v>0</v>
+      </c>
+      <c r="I25" s="29">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29">
+        <v>0</v>
+      </c>
+      <c r="K25" s="30">
+        <f>SUM(G25:J25)</f>
+        <v>0</v>
+      </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
@@ -2827,7 +2892,7 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="22"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2846,7 +2911,7 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="22"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2865,7 +2930,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="22"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2884,7 +2949,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="22"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -2903,7 +2968,7 @@
       <c r="P30" s="18"/>
       <c r="Q30" s="22"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2922,7 +2987,7 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="22"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -2941,7 +3006,7 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="22"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2960,7 +3025,7 @@
       <c r="P33" s="18"/>
       <c r="Q33" s="22"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -2979,7 +3044,7 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="22"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -2998,7 +3063,7 @@
       <c r="P35" s="18"/>
       <c r="Q35" s="22"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -3017,7 +3082,7 @@
       <c r="P36" s="18"/>
       <c r="Q36" s="22"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -3036,7 +3101,7 @@
       <c r="P37" s="18"/>
       <c r="Q37" s="22"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -3055,7 +3120,7 @@
       <c r="P38" s="18"/>
       <c r="Q38" s="22"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -3074,7 +3139,7 @@
       <c r="P39" s="18"/>
       <c r="Q39" s="22"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -3093,7 +3158,7 @@
       <c r="P40" s="18"/>
       <c r="Q40" s="22"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -3112,7 +3177,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="22"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -3131,7 +3196,7 @@
       <c r="P42" s="18"/>
       <c r="Q42" s="22"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -3150,7 +3215,7 @@
       <c r="P43" s="18"/>
       <c r="Q43" s="22"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -3169,7 +3234,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="22"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -3188,7 +3253,7 @@
       <c r="P45" s="18"/>
       <c r="Q45" s="22"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -3207,7 +3272,7 @@
       <c r="P46" s="18"/>
       <c r="Q46" s="22"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -3226,7 +3291,7 @@
       <c r="P47" s="18"/>
       <c r="Q47" s="22"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -3245,7 +3310,7 @@
       <c r="P48" s="18"/>
       <c r="Q48" s="22"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -3264,7 +3329,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="22"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -3283,7 +3348,7 @@
       <c r="P50" s="18"/>
       <c r="Q50" s="22"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -3302,7 +3367,7 @@
       <c r="P51" s="18"/>
       <c r="Q51" s="22"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -3321,7 +3386,7 @@
       <c r="P52" s="18"/>
       <c r="Q52" s="22"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -3340,7 +3405,7 @@
       <c r="P53" s="18"/>
       <c r="Q53" s="22"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -3359,7 +3424,7 @@
       <c r="P54" s="18"/>
       <c r="Q54" s="22"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -3378,7 +3443,7 @@
       <c r="P55" s="18"/>
       <c r="Q55" s="22"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -3397,7 +3462,7 @@
       <c r="P56" s="18"/>
       <c r="Q56" s="22"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -3416,7 +3481,7 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="22"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -3435,7 +3500,7 @@
       <c r="P58" s="18"/>
       <c r="Q58" s="22"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -3454,7 +3519,7 @@
       <c r="P59" s="18"/>
       <c r="Q59" s="22"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -3473,7 +3538,7 @@
       <c r="P60" s="18"/>
       <c r="Q60" s="22"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -3492,7 +3557,7 @@
       <c r="P61" s="18"/>
       <c r="Q61" s="22"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -3511,7 +3576,7 @@
       <c r="P62" s="18"/>
       <c r="Q62" s="22"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -3530,7 +3595,7 @@
       <c r="P63" s="18"/>
       <c r="Q63" s="22"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -3549,7 +3614,7 @@
       <c r="P64" s="18"/>
       <c r="Q64" s="22"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -3568,7 +3633,7 @@
       <c r="P65" s="18"/>
       <c r="Q65" s="22"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -3587,7 +3652,7 @@
       <c r="P66" s="18"/>
       <c r="Q66" s="22"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -3606,7 +3671,7 @@
       <c r="P67" s="18"/>
       <c r="Q67" s="22"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -3625,7 +3690,7 @@
       <c r="P68" s="18"/>
       <c r="Q68" s="22"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -3644,7 +3709,7 @@
       <c r="P69" s="18"/>
       <c r="Q69" s="22"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -3663,7 +3728,7 @@
       <c r="P70" s="18"/>
       <c r="Q70" s="22"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -3682,7 +3747,7 @@
       <c r="P71" s="18"/>
       <c r="Q71" s="22"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -3701,7 +3766,7 @@
       <c r="P72" s="18"/>
       <c r="Q72" s="22"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -3720,7 +3785,7 @@
       <c r="P73" s="18"/>
       <c r="Q73" s="22"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -3739,7 +3804,7 @@
       <c r="P74" s="18"/>
       <c r="Q74" s="22"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -3758,7 +3823,7 @@
       <c r="P75" s="18"/>
       <c r="Q75" s="22"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -3777,7 +3842,7 @@
       <c r="P76" s="18"/>
       <c r="Q76" s="22"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -3796,7 +3861,7 @@
       <c r="P77" s="18"/>
       <c r="Q77" s="22"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -3815,7 +3880,7 @@
       <c r="P78" s="18"/>
       <c r="Q78" s="22"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -3834,7 +3899,7 @@
       <c r="P79" s="18"/>
       <c r="Q79" s="22"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -3853,7 +3918,7 @@
       <c r="P80" s="18"/>
       <c r="Q80" s="22"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -3872,7 +3937,7 @@
       <c r="P81" s="18"/>
       <c r="Q81" s="22"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -3891,7 +3956,7 @@
       <c r="P82" s="18"/>
       <c r="Q82" s="22"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -3910,7 +3975,7 @@
       <c r="P83" s="18"/>
       <c r="Q83" s="22"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -3929,7 +3994,7 @@
       <c r="P84" s="18"/>
       <c r="Q84" s="22"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -3948,7 +4013,7 @@
       <c r="P85" s="18"/>
       <c r="Q85" s="22"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -3967,7 +4032,7 @@
       <c r="P86" s="18"/>
       <c r="Q86" s="22"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -3986,7 +4051,7 @@
       <c r="P87" s="18"/>
       <c r="Q87" s="22"/>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -4005,7 +4070,7 @@
       <c r="P88" s="18"/>
       <c r="Q88" s="22"/>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -4024,7 +4089,7 @@
       <c r="P89" s="18"/>
       <c r="Q89" s="22"/>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -4043,7 +4108,7 @@
       <c r="P90" s="18"/>
       <c r="Q90" s="22"/>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -4062,7 +4127,7 @@
       <c r="P91" s="18"/>
       <c r="Q91" s="22"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -4081,7 +4146,7 @@
       <c r="P92" s="18"/>
       <c r="Q92" s="22"/>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -4100,7 +4165,7 @@
       <c r="P93" s="18"/>
       <c r="Q93" s="22"/>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -4119,7 +4184,7 @@
       <c r="P94" s="18"/>
       <c r="Q94" s="22"/>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -4138,7 +4203,7 @@
       <c r="P95" s="18"/>
       <c r="Q95" s="22"/>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -4157,7 +4222,7 @@
       <c r="P96" s="18"/>
       <c r="Q96" s="22"/>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -4176,7 +4241,7 @@
       <c r="P97" s="18"/>
       <c r="Q97" s="22"/>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -4195,7 +4260,7 @@
       <c r="P98" s="18"/>
       <c r="Q98" s="22"/>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -4214,7 +4279,7 @@
       <c r="P99" s="18"/>
       <c r="Q99" s="22"/>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -4233,7 +4298,7 @@
       <c r="P100" s="18"/>
       <c r="Q100" s="22"/>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
@@ -4252,7 +4317,7 @@
       <c r="P101" s="18"/>
       <c r="Q101" s="22"/>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="18"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -4271,7 +4336,7 @@
       <c r="P102" s="18"/>
       <c r="Q102" s="22"/>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -4290,7 +4355,7 @@
       <c r="P103" s="18"/>
       <c r="Q103" s="22"/>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -4309,7 +4374,7 @@
       <c r="P104" s="18"/>
       <c r="Q104" s="22"/>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -4328,7 +4393,7 @@
       <c r="P105" s="18"/>
       <c r="Q105" s="22"/>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -4347,7 +4412,7 @@
       <c r="P106" s="18"/>
       <c r="Q106" s="22"/>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -4366,7 +4431,7 @@
       <c r="P107" s="18"/>
       <c r="Q107" s="22"/>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -4385,7 +4450,7 @@
       <c r="P108" s="18"/>
       <c r="Q108" s="22"/>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -4404,7 +4469,7 @@
       <c r="P109" s="18"/>
       <c r="Q109" s="22"/>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -4423,7 +4488,7 @@
       <c r="P110" s="18"/>
       <c r="Q110" s="22"/>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -4442,7 +4507,7 @@
       <c r="P111" s="18"/>
       <c r="Q111" s="22"/>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -4461,7 +4526,7 @@
       <c r="P112" s="18"/>
       <c r="Q112" s="22"/>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -4480,7 +4545,7 @@
       <c r="P113" s="18"/>
       <c r="Q113" s="22"/>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -4499,7 +4564,7 @@
       <c r="P114" s="18"/>
       <c r="Q114" s="22"/>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
@@ -4518,7 +4583,7 @@
       <c r="P115" s="18"/>
       <c r="Q115" s="22"/>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -4537,7 +4602,7 @@
       <c r="P116" s="18"/>
       <c r="Q116" s="22"/>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -4557,9 +4622,8 @@
       <c r="Q117" s="22"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <sortState ref="A8:XFD19">
-    <sortCondition ref="C9:C19"/>
+  <sortState ref="A8:Q25">
+    <sortCondition ref="C8:C25"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="G6:K6"/>
@@ -4569,15 +4633,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="69" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial Narrow,Regular"SBIR/STTR Commercialization History</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>